--- a/data/messy_uc.xlsx
+++ b/data/messy_uc.xlsx
@@ -1,53 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crystal\Desktop\Freelance\workshops\rmedicine\rmedicine-data-cleaning-2023\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data-cleaning-2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE4A3DE-2FB7-4C53-87D8-8C81403E6588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E432B4D3-4F42-4C0B-B7B1-71692E551754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{C3B41A98-E045-B641-B5DC-D433CA053FBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{C3B41A98-E045-B641-B5DC-D433CA053FBE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Explainer" sheetId="1" r:id="rId1"/>
-    <sheet name="Data_Dictionary" sheetId="2" r:id="rId2"/>
-    <sheet name="Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Problems" sheetId="4" r:id="rId4"/>
+    <sheet name="Data_Dictionary" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="364">
-  <si>
-    <t>Your well-meaning research assistant/med student has extracted data from the medical record into Excel</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="330">
   <si>
     <t>points</t>
   </si>
   <si>
-    <t>This is for an observational study, comparing 3 treatments of ulcerative colitis (UC)</t>
-  </si>
-  <si>
     <t>pat_id</t>
   </si>
   <si>
@@ -897,93 +880,15 @@
     <t>H/API</t>
   </si>
   <si>
-    <t>Variables and Corresponding Problems</t>
-  </si>
-  <si>
-    <t>Problem</t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>ethnic, race</t>
-  </si>
-  <si>
-    <t>Categories with typos</t>
-  </si>
-  <si>
-    <t>text in numeric data</t>
-  </si>
-  <si>
-    <t>k, plt</t>
-  </si>
-  <si>
-    <t>reding in excel dates</t>
-  </si>
-  <si>
-    <t>unifying split columns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_date pieces, address pieces </t>
-  </si>
-  <si>
-    <t>separating data</t>
-  </si>
-  <si>
-    <t>BP into systolic and diastolic BP, pre/post wt in kg</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Extra header lines at top of sheet</t>
-  </si>
-  <si>
-    <t>janitor::clean_names</t>
-  </si>
-  <si>
     <t>Start Abd score</t>
   </si>
   <si>
     <t>Daily Life impact score at start</t>
   </si>
   <si>
-    <t>Start Abd score, Daliy Life score, pre/post wt</t>
-  </si>
-  <si>
-    <t>BP, WBC</t>
-  </si>
-  <si>
-    <t>add units mmHg, cells per 10^9</t>
-  </si>
-  <si>
-    <t>encoded meaning -99 for not collected</t>
-  </si>
-  <si>
-    <t>end_na, end_k</t>
-  </si>
-  <si>
-    <t>out of range values</t>
-  </si>
-  <si>
-    <t>start_wbc, start_plt</t>
-  </si>
-  <si>
-    <t>missing values</t>
-  </si>
-  <si>
     <t>not done</t>
   </si>
   <si>
-    <t>end_emo, end_dl</t>
-  </si>
-  <si>
-    <t>Assorted problems are found when you try to read this in</t>
-  </si>
-  <si>
-    <t>Goal: are there differences in change in MES, QOL scores between start and finish, and are the decreases in scores (a good thing) greater for any of the 3 new medications</t>
-  </si>
-  <si>
     <t>0-100</t>
   </si>
   <si>
@@ -994,24 +899,6 @@
   </si>
   <si>
     <t>AmerInd</t>
-  </si>
-  <si>
-    <t>dob, start_date - fix with janitor::excel_numeric_to_date</t>
-  </si>
-  <si>
-    <t>empty rows and columns</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> one of each, janitor::remove_empty</t>
-  </si>
-  <si>
-    <t>extraneous color coding</t>
-  </si>
-  <si>
-    <t>treatment names - do not actually need to be fixed in this one</t>
-  </si>
-  <si>
-    <t>with the endpoints of Mayo Endoscopic Score (MES), and QOL scores like coping score, bowel symptom score, and emotional score</t>
   </si>
   <si>
     <t>273K/microL</t>
@@ -1252,7 +1139,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1547,46 +1434,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15480B8B-969F-E742-8325-95F43BEF8E81}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F62C6B0-1CE9-F542-AE26-5D7043923353}">
   <dimension ref="A1:E34"/>
   <sheetViews>
@@ -1594,513 +1441,513 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="43.375" customWidth="1"/>
+    <col min="1" max="1" width="17.8984375" customWidth="1"/>
+    <col min="2" max="2" width="43.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
         <v>87</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E11" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E12" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E13" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E14" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E15" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E16" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E25" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E26" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E27" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E28" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E29" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E30" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2109,213 +1956,213 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2E3CCE-D9A6-4043-B4E6-790885873B0A}">
   <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15.6"/>
   <cols>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="26.5" customWidth="1"/>
-    <col min="36" max="36" width="22.125" customWidth="1"/>
-    <col min="37" max="37" width="18.125" customWidth="1"/>
+    <col min="36" max="36" width="22.09765625" customWidth="1"/>
+    <col min="37" max="37" width="18.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:38">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:38">
       <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="P7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="R7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" t="s">
+      <c r="S7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" t="s">
         <v>24</v>
       </c>
-      <c r="I7" t="s">
+      <c r="V7" t="s">
         <v>25</v>
       </c>
-      <c r="J7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" t="s">
-        <v>301</v>
-      </c>
-      <c r="M7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" t="s">
-        <v>22</v>
-      </c>
-      <c r="T7" t="s">
-        <v>23</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>26</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>27</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
         <v>28</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>29</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AA7" t="s">
         <v>30</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AB7" t="s">
         <v>31</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>32</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>33</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF7" t="s">
         <v>34</v>
       </c>
-      <c r="AD7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH7" t="s">
         <v>37</v>
       </c>
-      <c r="AF7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>39</v>
-      </c>
       <c r="AI7" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK7" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="AJ7" s="6" t="s">
+      <c r="AL7" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="AK7" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="AL7" s="6" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="8">
         <v>44208</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F8" s="4">
         <v>38359</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8" s="8">
         <f ca="1">J8*25 + 5* RAND()</f>
-        <v>75.854492664658096</v>
+        <v>76.534138140399506</v>
       </c>
       <c r="L8" s="8">
         <f ca="1">J8* 25 + 6* RAND()</f>
-        <v>76.802628191392969</v>
+        <v>77.493158587292896</v>
       </c>
       <c r="M8" s="8">
         <f ca="1" xml:space="preserve"> J8*26 + 5 * RAND()</f>
-        <v>81.638071979911018</v>
+        <v>81.488537896183189</v>
       </c>
       <c r="N8" s="8">
         <f ca="1" xml:space="preserve"> J8 *14 + 10* RAND()</f>
-        <v>50.759130944063955</v>
+        <v>48.675063190462097</v>
       </c>
       <c r="O8" s="8">
         <f ca="1" xml:space="preserve"> J8 *22 + 15* RAND()</f>
-        <v>79.312595958526188</v>
+        <v>78.773356013507879</v>
       </c>
       <c r="P8" s="8">
         <f ca="1">J8 * 28 + 4* RAND()</f>
-        <v>87.817228159581362</v>
+        <v>86.586326144569767</v>
       </c>
       <c r="Q8">
         <v>8.1999999999999993</v>
       </c>
       <c r="R8" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="S8" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="T8">
         <v>3.7</v>
@@ -2334,31 +2181,31 @@
       </c>
       <c r="Y8" s="8">
         <f ca="1" xml:space="preserve"> K8-22*(J8-X8)</f>
-        <v>9.8544926646580961</v>
+        <v>10.534138140399506</v>
       </c>
       <c r="Z8" s="8">
         <f ca="1" xml:space="preserve"> L8-20*(J8-X8)</f>
-        <v>16.802628191392969</v>
+        <v>17.493158587292896</v>
       </c>
       <c r="AA8" s="8">
         <f ca="1" xml:space="preserve"> M8-24*(J8-X8)</f>
-        <v>9.6380719799110182</v>
+        <v>9.488537896183189</v>
       </c>
       <c r="AB8" s="8">
         <f ca="1" xml:space="preserve"> N8-9*(J8-X8)</f>
-        <v>23.759130944063955</v>
+        <v>21.675063190462097</v>
       </c>
       <c r="AC8" s="8">
         <f ca="1" xml:space="preserve"> O8-14*(J8-X8)+ 6*RAND()</f>
-        <v>39.760954572288782</v>
+        <v>41.442800515761576</v>
       </c>
       <c r="AD8" s="8">
         <f ca="1" xml:space="preserve"> P8-27*(J8-X8)+ 3*RAND()</f>
-        <v>9.4097102977463347</v>
+        <v>6.0709791871463237</v>
       </c>
       <c r="AE8" s="7">
         <f ca="1">IF(B8 ="upa", Q8 +1.5* RAND()*0.8, Q8 +1.5* RAND())</f>
-        <v>8.5416976916463838</v>
+        <v>8.3584978327970063</v>
       </c>
       <c r="AF8" s="8">
         <v>201</v>
@@ -2368,16 +2215,16 @@
       </c>
       <c r="AH8" s="7">
         <f ca="1">T8 + 0.3* RAND()</f>
-        <v>3.958430451086107</v>
+        <v>3.7464338904209389</v>
       </c>
       <c r="AI8" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK8" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="AL8" s="5">
         <v>96074</v>
@@ -2385,65 +2232,65 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="8">
         <v>44215</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F9" s="4">
         <v>13618</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ref="K9:K38" ca="1" si="0">J9*25 + 5* RAND()</f>
-        <v>54.655357154065989</v>
+        <v>52.43398342005775</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" ref="L9:L38" ca="1" si="1">J9* 25 + 6* RAND()</f>
-        <v>53.569078797960699</v>
+        <v>51.360677846538024</v>
       </c>
       <c r="M9" s="8">
         <f t="shared" ref="M9:M38" ca="1" si="2" xml:space="preserve"> J9*26 + 5 * RAND()</f>
-        <v>53.3980233956392</v>
+        <v>54.799318734965134</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" ref="N9:N38" ca="1" si="3" xml:space="preserve"> J9 *14 + 10* RAND()</f>
-        <v>28.234646470027705</v>
+        <v>36.625653783047838</v>
       </c>
       <c r="O9" s="8">
         <f t="shared" ref="O9:O38" ca="1" si="4" xml:space="preserve"> J9 *22 + 15* RAND()</f>
-        <v>58.554207418846318</v>
+        <v>56.899013335489052</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" ref="P9:P38" ca="1" si="5">J9 * 28 + 4* RAND()</f>
-        <v>59.878436355017584</v>
+        <v>58.235836182424535</v>
       </c>
       <c r="Q9">
         <v>10.1</v>
       </c>
       <c r="R9" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="S9" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="T9">
         <v>4.0999999999999996</v>
@@ -2462,31 +2309,31 @@
       </c>
       <c r="Y9" s="8">
         <f t="shared" ref="Y9:Y38" ca="1" si="6" xml:space="preserve"> K9-22*(J9-X9)</f>
-        <v>32.655357154065989</v>
+        <v>30.43398342005775</v>
       </c>
       <c r="Z9" s="8">
         <f t="shared" ref="Z9:Z38" ca="1" si="7" xml:space="preserve"> L9-20*(J9-X9)</f>
-        <v>33.569078797960699</v>
+        <v>31.360677846538024</v>
       </c>
       <c r="AA9" s="8">
         <f t="shared" ref="AA9:AA38" ca="1" si="8" xml:space="preserve"> M9-24*(J9-X9)</f>
-        <v>29.3980233956392</v>
+        <v>30.799318734965134</v>
       </c>
       <c r="AB9" s="8">
         <f t="shared" ref="AB9:AB38" ca="1" si="9" xml:space="preserve"> N9-9*(J9-X9)</f>
-        <v>19.234646470027705</v>
+        <v>27.625653783047838</v>
       </c>
       <c r="AC9" s="8">
         <f t="shared" ref="AC9:AC38" ca="1" si="10" xml:space="preserve"> O9-14*(J9-X9)+ 6*RAND()</f>
-        <v>49.369281547911214</v>
+        <v>43.705407777987361</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" ref="AD9:AD38" ca="1" si="11" xml:space="preserve"> P9-27*(J9-X9)+ 3*RAND()</f>
-        <v>35.238740598703913</v>
+        <v>32.344813215625578</v>
       </c>
       <c r="AE9" s="7">
         <f t="shared" ref="AE9:AE38" ca="1" si="12">IF(B9 ="upa", Q9 +1.5* RAND()*0.8, Q9 +1.5* RAND())</f>
-        <v>11.076921291862758</v>
+        <v>10.654553201606834</v>
       </c>
       <c r="AF9" s="8">
         <v>340</v>
@@ -2496,16 +2343,16 @@
       </c>
       <c r="AH9" s="7">
         <f t="shared" ref="AH9:AH38" ca="1" si="13">T9 + 0.3* RAND()</f>
-        <v>4.1749792804691319</v>
+        <v>4.1619844424556875</v>
       </c>
       <c r="AI9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK9" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="AJ9" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK9" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="AL9" s="5">
         <v>11264</v>
@@ -2513,65 +2360,65 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C10" s="8">
         <v>44230</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F10" s="4">
         <v>16959</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>28.462897182833718</v>
+        <v>25.86154356849142</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>30.826225074480579</v>
+        <v>27.342586273852042</v>
       </c>
       <c r="M10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>29.508372579307292</v>
+        <v>28.537139687791679</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>20.03400938731054</v>
+        <v>14.538959431473195</v>
       </c>
       <c r="O10" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>32.228119586697915</v>
+        <v>36.742405898778955</v>
       </c>
       <c r="P10" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>28.393207406760286</v>
+        <v>29.072476747784037</v>
       </c>
       <c r="Q10">
         <v>5.5</v>
       </c>
       <c r="R10" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="S10" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="T10">
         <v>4.3</v>
@@ -2590,27 +2437,27 @@
       </c>
       <c r="Y10" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>28.462897182833718</v>
+        <v>25.86154356849142</v>
       </c>
       <c r="Z10" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>30.826225074480579</v>
+        <v>27.342586273852042</v>
       </c>
       <c r="AA10" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>29.508372579307292</v>
+        <v>28.537139687791679</v>
       </c>
       <c r="AB10" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>20.03400938731054</v>
+        <v>14.538959431473195</v>
       </c>
       <c r="AC10" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>35.901286306780541</v>
+        <v>40.067336288761709</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>30.464847562788684</v>
+        <v>31.633984132445114</v>
       </c>
       <c r="AE10" s="7">
         <v>3</v>
@@ -2623,16 +2470,16 @@
       </c>
       <c r="AH10" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.4335327825550381</v>
+        <v>4.347159229003176</v>
       </c>
       <c r="AI10" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK10" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK10" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="AL10" s="5">
         <v>57246</v>
@@ -2640,65 +2487,65 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="8">
         <v>44245</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F11" s="4">
         <v>23206</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.236469882558737</v>
+        <v>78.137637527008394</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.727617941856906</v>
+        <v>78.504633472657389</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>79.078525971399046</v>
+        <v>80.619936151400253</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>45.101982933137094</v>
+        <v>51.905106695664045</v>
       </c>
       <c r="O11" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>75.608973520511796</v>
+        <v>68.671123994290255</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.11734904439156</v>
+        <v>86.087546492787425</v>
       </c>
       <c r="Q11">
         <v>4.7</v>
       </c>
       <c r="R11" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="S11" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="T11">
         <v>3.5</v>
@@ -2717,31 +2564,31 @@
       </c>
       <c r="Y11" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>33.236469882558737</v>
+        <v>34.137637527008394</v>
       </c>
       <c r="Z11" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>37.727617941856906</v>
+        <v>38.504633472657389</v>
       </c>
       <c r="AA11" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>31.078525971399046</v>
+        <v>32.619936151400253</v>
       </c>
       <c r="AB11" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>27.101982933137094</v>
+        <v>33.905106695664045</v>
       </c>
       <c r="AC11" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>50.2057532077703</v>
+        <v>42.093158238128808</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.438822988139307</v>
+        <v>33.964498119066313</v>
       </c>
       <c r="AE11" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>4.8581763785531553</v>
+        <v>4.8971551336335768</v>
       </c>
       <c r="AF11" s="8">
         <v>327</v>
@@ -2751,16 +2598,16 @@
       </c>
       <c r="AH11" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>3.5335697031525295</v>
+        <v>3.5520880253171629</v>
       </c>
       <c r="AI11" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK11" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="AJ11" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="AL11" s="5">
         <v>31457</v>
@@ -2768,65 +2615,65 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" s="8">
         <v>44255</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F12" s="4">
         <v>28622</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J12">
         <v>3</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.812996107020851</v>
+        <v>77.721177125910017</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.492240397073786</v>
+        <v>76.523171738189802</v>
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.56201795364781</v>
+        <v>80.932970722672181</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>48.144792955071111</v>
+        <v>47.240164754930838</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>74.345840144374478</v>
+        <v>73.211767240200842</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.733583608936186</v>
+        <v>85.324109099905783</v>
       </c>
       <c r="Q12">
         <v>8.9</v>
       </c>
       <c r="R12" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="S12" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="T12">
         <v>4</v>
@@ -2845,27 +2692,27 @@
       </c>
       <c r="Y12" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>56.812996107020851</v>
+        <v>55.721177125910017</v>
       </c>
       <c r="Z12" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>58.492240397073786</v>
+        <v>56.523171738189802</v>
       </c>
       <c r="AA12" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>58.56201795364781</v>
+        <v>56.932970722672181</v>
       </c>
       <c r="AB12" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>39.144792955071111</v>
+        <v>38.240164754930838</v>
       </c>
       <c r="AC12" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>64.973437247083666</v>
+        <v>63.488527793468464</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>60.982960818815918</v>
+        <v>58.960489281210862</v>
       </c>
       <c r="AE12" s="7">
         <v>4.8</v>
@@ -2878,16 +2725,16 @@
       </c>
       <c r="AH12" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.0209517122232992</v>
+        <v>4.1500823861779335</v>
       </c>
       <c r="AI12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK12" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="AJ12" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK12" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="AL12" s="5">
         <v>30711</v>
@@ -2895,65 +2742,65 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C13" s="8">
         <v>44259</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F13" s="4">
         <v>33697</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J13">
         <v>2</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>54.357705520213614</v>
+        <v>53.855587464685932</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>54.50637507407199</v>
+        <v>54.092172063670994</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>56.900632872303795</v>
+        <v>52.851914397359401</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>30.757146563858399</v>
+        <v>33.417737941203825</v>
       </c>
       <c r="O13" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>45.264825114598516</v>
+        <v>57.742218995610308</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>57.736510586932241</v>
+        <v>56.015708080246718</v>
       </c>
       <c r="Q13">
         <v>9.3000000000000007</v>
       </c>
       <c r="R13" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="S13" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="T13">
         <v>4.4000000000000004</v>
@@ -2972,31 +2819,31 @@
       </c>
       <c r="Y13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.357705520213614</v>
+        <v>31.855587464685932</v>
       </c>
       <c r="Z13" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>34.50637507407199</v>
+        <v>34.092172063670994</v>
       </c>
       <c r="AA13" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>32.900632872303795</v>
+        <v>28.851914397359401</v>
       </c>
       <c r="AB13" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>21.757146563858399</v>
+        <v>24.417737941203825</v>
       </c>
       <c r="AC13" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>35.965982580017993</v>
+        <v>49.540149477270447</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>32.286444657177732</v>
+        <v>30.407869683771327</v>
       </c>
       <c r="AE13" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.5735247479922627</v>
+        <v>9.8423045481725175</v>
       </c>
       <c r="AF13" s="8">
         <v>348</v>
@@ -3006,16 +2853,16 @@
       </c>
       <c r="AH13" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.4737959318098648</v>
+        <v>4.4665024940882603</v>
       </c>
       <c r="AI13" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK13" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="AJ13" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK13" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="AL13" s="5">
         <v>52722</v>
@@ -3023,65 +2870,65 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="8">
         <v>44264</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F14" s="4">
         <v>20323</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J14">
         <v>3</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.699264497070942</v>
+        <v>75.914075877613612</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.15946128034723</v>
+        <v>80.091514744842868</v>
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.34471095665802</v>
+        <v>82.752474795186828</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>45.383202717261284</v>
+        <v>43.509105477117139</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>66.630086588496155</v>
+        <v>68.312734962901274</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.731535590470855</v>
+        <v>84.001252463076071</v>
       </c>
       <c r="Q14">
         <v>5.6</v>
       </c>
       <c r="R14" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="S14" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="T14">
         <v>3.6</v>
@@ -3100,31 +2947,31 @@
       </c>
       <c r="Y14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>57.699264497070942</v>
+        <v>53.914075877613612</v>
       </c>
       <c r="Z14" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>60.15946128034723</v>
+        <v>60.091514744842868</v>
       </c>
       <c r="AA14" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>56.34471095665802</v>
+        <v>58.752474795186828</v>
       </c>
       <c r="AB14" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>36.383202717261284</v>
+        <v>34.509105477117139</v>
       </c>
       <c r="AC14" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>57.76367623799068</v>
+        <v>59.820802992644495</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>57.90671765123809</v>
+        <v>59.590397712455037</v>
       </c>
       <c r="AE14" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>6.2829386192911549</v>
+        <v>6.081719653858257</v>
       </c>
       <c r="AF14" s="8">
         <v>181</v>
@@ -3134,16 +2981,16 @@
       </c>
       <c r="AH14" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>3.8431409289001315</v>
+        <v>3.7691890699825974</v>
       </c>
       <c r="AI14" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK14" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="AJ14" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="AL14" s="5">
         <v>48086</v>
@@ -3151,65 +2998,65 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" s="8">
         <v>44999</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F15" s="4">
         <v>27283</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J15">
         <v>3</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.010551432637186</v>
+        <v>75.955495688663447</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.776198977936076</v>
+        <v>79.961502060451664</v>
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.104398692427523</v>
+        <v>78.953344181431177</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>46.732164968509771</v>
+        <v>51.614481791601101</v>
       </c>
       <c r="O15" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>74.504555195166617</v>
+        <v>76.302917352248343</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.693282346807294</v>
+        <v>84.564478365747988</v>
       </c>
       <c r="Q15">
         <v>9.6999999999999993</v>
       </c>
       <c r="R15" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="S15" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="T15">
         <v>4.5</v>
@@ -3228,27 +3075,27 @@
       </c>
       <c r="Y15" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>53.010551432637186</v>
+        <v>53.955495688663447</v>
       </c>
       <c r="Z15" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>57.776198977936076</v>
+        <v>59.961502060451664</v>
       </c>
       <c r="AA15" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>54.104398692427523</v>
+        <v>54.953344181431177</v>
       </c>
       <c r="AB15" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>37.732164968509771</v>
+        <v>42.614481791601101</v>
       </c>
       <c r="AC15" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>61.960515932643503</v>
+        <v>67.810716378038592</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>57.923389165108134</v>
+        <v>60.243551508341085</v>
       </c>
       <c r="AE15" s="7">
         <v>4.9000000000000004</v>
@@ -3261,16 +3108,16 @@
       </c>
       <c r="AH15" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.7547620458805895</v>
+        <v>4.7010610020402384</v>
       </c>
       <c r="AI15" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AJ15" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AK15" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AL15" s="5">
         <v>50784</v>
@@ -3278,65 +3125,65 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C16" s="8">
         <v>44276</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F16" s="4">
         <v>31000</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J16">
         <v>2</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>53.055203255192993</v>
+        <v>50.646783386604525</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>53.984484121925348</v>
+        <v>52.690534451277692</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>52.733822172663572</v>
+        <v>53.879136781622265</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>36.272849897415476</v>
+        <v>32.656082991660512</v>
       </c>
       <c r="O16" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>49.991447436884833</v>
+        <v>44.50667320909092</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>57.834748163140375</v>
+        <v>57.238626957505929</v>
       </c>
       <c r="Q16">
         <v>8.3000000000000007</v>
       </c>
       <c r="R16" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="S16" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="T16">
         <v>4.3</v>
@@ -3355,31 +3202,31 @@
       </c>
       <c r="Y16" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0552032551929926</v>
+        <v>6.6467833866045254</v>
       </c>
       <c r="Z16" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>13.984484121925348</v>
+        <v>12.690534451277692</v>
       </c>
       <c r="AA16" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>4.7338221726635723</v>
+        <v>5.8791367816222646</v>
       </c>
       <c r="AB16" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>18.272849897415476</v>
+        <v>14.656082991660512</v>
       </c>
       <c r="AC16" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>27.768279853236116</v>
+        <v>18.593734280883144</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>4.8936688981943242</v>
+        <v>5.4055878203851186</v>
       </c>
       <c r="AE16" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.2804630008071562</v>
+        <v>8.9254452046910622</v>
       </c>
       <c r="AF16" s="8">
         <v>135</v>
@@ -3389,16 +3236,16 @@
       </c>
       <c r="AH16" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.5162371751852817</v>
+        <v>4.3258141226914688</v>
       </c>
       <c r="AI16" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ16" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK16" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="AL16" s="5">
         <v>64711</v>
@@ -3406,65 +3253,65 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C17" s="8">
         <v>44278</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F17" s="4">
         <v>26653</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J17">
         <v>3</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.906331560091402</v>
+        <v>78.348318051916053</v>
       </c>
       <c r="L17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.861142183082492</v>
+        <v>77.337166463401829</v>
       </c>
       <c r="M17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.110136341668294</v>
+        <v>80.202276666421298</v>
       </c>
       <c r="N17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>42.505266237926215</v>
+        <v>43.12726115598889</v>
       </c>
       <c r="O17" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>72.513609347669373</v>
+        <v>74.62967007490181</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.924072429938832</v>
+        <v>87.680327514283974</v>
       </c>
       <c r="Q17">
         <v>7.6</v>
       </c>
       <c r="R17" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="S17" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="T17">
         <v>3.8</v>
@@ -3483,27 +3330,27 @@
       </c>
       <c r="Y17" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>34.906331560091402</v>
+        <v>34.348318051916053</v>
       </c>
       <c r="Z17" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>40.861142183082492</v>
+        <v>37.337166463401829</v>
       </c>
       <c r="AA17" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>34.110136341668294</v>
+        <v>32.202276666421298</v>
       </c>
       <c r="AB17" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>24.505266237926215</v>
+        <v>25.12726115598889</v>
       </c>
       <c r="AC17" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>45.948161004250508</v>
+        <v>47.649469379566142</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>34.119553712432953</v>
+        <v>35.032418385300289</v>
       </c>
       <c r="AE17" s="7">
         <v>4.4000000000000004</v>
@@ -3516,16 +3363,16 @@
       </c>
       <c r="AH17" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>3.9833440237933764</v>
+        <v>4.0729379079968808</v>
       </c>
       <c r="AI17" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK17" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AK17" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="AL17" s="5">
         <v>33707</v>
@@ -3533,65 +3380,65 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C18" s="8">
         <v>44297</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F18" s="4">
         <v>34617</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J18">
         <v>3</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.828174902534514</v>
+        <v>75.853148905067002</v>
       </c>
       <c r="L18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.866036900888133</v>
+        <v>80.921804733950367</v>
       </c>
       <c r="M18" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.833402538750107</v>
+        <v>81.289492803960925</v>
       </c>
       <c r="N18" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>50.423185483852691</v>
+        <v>48.113112336581572</v>
       </c>
       <c r="O18" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>77.687465620050062</v>
+        <v>69.395920782035873</v>
       </c>
       <c r="P18" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.524718059054095</v>
+        <v>84.177231434917005</v>
       </c>
       <c r="Q18">
         <v>9.1999999999999993</v>
       </c>
       <c r="R18" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="S18" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="T18">
         <v>3.6</v>
@@ -3610,31 +3457,31 @@
       </c>
       <c r="Y18" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>11.828174902534514</v>
+        <v>9.8531489050670018</v>
       </c>
       <c r="Z18" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>17.866036900888133</v>
+        <v>20.921804733950367</v>
       </c>
       <c r="AA18" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>8.8334025387501072</v>
+        <v>9.2894928039609255</v>
       </c>
       <c r="AB18" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>23.423185483852691</v>
+        <v>21.113112336581572</v>
       </c>
       <c r="AC18" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>37.34426764708568</v>
+        <v>29.328909105697868</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>4.9246725277048693</v>
+        <v>5.5104237060486625</v>
       </c>
       <c r="AE18" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.114511309968144</v>
+        <v>10.243101751192206</v>
       </c>
       <c r="AF18" s="8">
         <v>288</v>
@@ -3644,16 +3491,16 @@
       </c>
       <c r="AH18" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>3.760204336943084</v>
+        <v>3.8697973246289425</v>
       </c>
       <c r="AI18" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK18" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="AJ18" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="AL18" s="5">
         <v>69601</v>
@@ -3661,65 +3508,65 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C19" s="8">
         <v>44308</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F19" s="4">
         <v>34290</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J19">
         <v>3</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.898945036465463</v>
+        <v>76.315306790918953</v>
       </c>
       <c r="L19" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.998133013124942</v>
+        <v>75.078708345044006</v>
       </c>
       <c r="M19" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.347071123752073</v>
+        <v>81.979033672762384</v>
       </c>
       <c r="N19" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>50.500420159498532</v>
+        <v>51.280636483693428</v>
       </c>
       <c r="O19" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>75.983775388848287</v>
+        <v>76.146880007059721</v>
       </c>
       <c r="P19" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.841336872495205</v>
+        <v>86.089965349041805</v>
       </c>
       <c r="Q19">
         <v>11.5</v>
       </c>
       <c r="R19" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="S19" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="T19">
         <v>3.4</v>
@@ -3738,31 +3585,31 @@
       </c>
       <c r="Y19" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>34.898945036465463</v>
+        <v>32.315306790918953</v>
       </c>
       <c r="Z19" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>39.998133013124942</v>
+        <v>35.078708345044006</v>
       </c>
       <c r="AA19" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>32.347071123752073</v>
+        <v>33.979033672762384</v>
       </c>
       <c r="AB19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>32.500420159498532</v>
+        <v>33.280636483693428</v>
       </c>
       <c r="AC19" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>51.859745680890889</v>
+        <v>52.214580386798758</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>32.123601253197265</v>
+        <v>33.027445205193764</v>
       </c>
       <c r="AE19" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>12.179191152670995</v>
+        <v>12.030434103354168</v>
       </c>
       <c r="AF19" s="8">
         <v>339</v>
@@ -3772,16 +3619,16 @@
       </c>
       <c r="AH19" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>3.6661430423098227</v>
+        <v>3.5920334092019024</v>
       </c>
       <c r="AI19" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK19" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="AJ19" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK19" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="AL19" s="5">
         <v>53356</v>
@@ -3789,65 +3636,65 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" s="8">
         <v>44313</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F20" s="4">
         <v>17590</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J20">
         <v>3</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.655732935815593</v>
+        <v>75.959586775247473</v>
       </c>
       <c r="L20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.579240785751708</v>
+        <v>78.461504404593683</v>
       </c>
       <c r="M20" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.971202828800628</v>
+        <v>80.533971661177503</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43.358089887778213</v>
+        <v>50.086650815715615</v>
       </c>
       <c r="O20" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>77.479957945109078</v>
+        <v>67.482315387530562</v>
       </c>
       <c r="P20" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.362302910691739</v>
+        <v>85.388457741501696</v>
       </c>
       <c r="Q20">
         <v>10.199999999999999</v>
       </c>
       <c r="R20" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="S20" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="T20">
         <v>3.9</v>
@@ -3866,31 +3713,31 @@
       </c>
       <c r="Y20" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.655732935815593</v>
+        <v>31.959586775247473</v>
       </c>
       <c r="Z20" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>39.579240785751708</v>
+        <v>38.461504404593683</v>
       </c>
       <c r="AA20" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>33.971202828800628</v>
+        <v>32.533971661177503</v>
       </c>
       <c r="AB20" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>25.358089887778213</v>
+        <v>32.086650815715615</v>
       </c>
       <c r="AC20" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>55.055731509083827</v>
+        <v>43.850490852125972</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.837425109957636</v>
+        <v>34.31000004833674</v>
       </c>
       <c r="AE20" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.770567239925512</v>
+        <v>11.140634707969635</v>
       </c>
       <c r="AF20" s="8">
         <v>321</v>
@@ -3900,16 +3747,16 @@
       </c>
       <c r="AH20" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.0431878559995207</v>
+        <v>3.9382484115013492</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AJ20" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AK20" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL20" s="5">
         <v>32865</v>
@@ -3917,65 +3764,65 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C21" s="8">
         <v>44318</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F21" s="4">
         <v>24219</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J21">
         <v>3</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.156836334177171</v>
+        <v>76.920919973339039</v>
       </c>
       <c r="L21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.034438953094238</v>
+        <v>76.088716417224276</v>
       </c>
       <c r="M21" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.913763537090773</v>
+        <v>79.967815012091776</v>
       </c>
       <c r="N21" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>49.72778830123363</v>
+        <v>46.360948477398182</v>
       </c>
       <c r="O21" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>74.356636247545282</v>
+        <v>67.824741838043593</v>
       </c>
       <c r="P21" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.972431086179142</v>
+        <v>85.357133802547608</v>
       </c>
       <c r="Q21">
         <v>106</v>
       </c>
       <c r="R21" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="S21" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="T21">
         <v>4.5999999999999996</v>
@@ -3994,27 +3841,27 @@
       </c>
       <c r="Y21" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>55.156836334177171</v>
+        <v>54.920919973339039</v>
       </c>
       <c r="Z21" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>56.034438953094238</v>
+        <v>56.088716417224276</v>
       </c>
       <c r="AA21" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>57.913763537090773</v>
+        <v>55.967815012091776</v>
       </c>
       <c r="AB21" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>40.72778830123363</v>
+        <v>37.360948477398182</v>
       </c>
       <c r="AC21" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>62.246053520477801</v>
+        <v>54.82586141390037</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>60.302196184393367</v>
+        <v>59.211331976300293</v>
       </c>
       <c r="AE21" s="7">
         <v>5.3</v>
@@ -4027,16 +3874,16 @@
       </c>
       <c r="AH21" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.6372722503291453</v>
+        <v>4.8925387544240149</v>
       </c>
       <c r="AI21" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK21" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK21" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="AL21" s="5">
         <v>56772</v>
@@ -4044,65 +3891,65 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="8">
         <v>44324</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F22" s="4">
         <v>28713</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>53.770643341016587</v>
+        <v>54.680849393576906</v>
       </c>
       <c r="L22" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>52.459085879704048</v>
+        <v>53.273860722120332</v>
       </c>
       <c r="M22" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>55.710414956110711</v>
+        <v>55.0775633543673</v>
       </c>
       <c r="N22" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>34.969525381801589</v>
+        <v>37.877648115665643</v>
       </c>
       <c r="O22" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>49.456463672877902</v>
+        <v>57.054877513491107</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>56.447557731130424</v>
+        <v>58.928287998476122</v>
       </c>
       <c r="Q22">
         <v>10.1</v>
       </c>
       <c r="R22" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="S22" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="T22">
         <v>4.3</v>
@@ -4121,29 +3968,29 @@
       </c>
       <c r="Y22" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.7706433410165872</v>
+        <v>10.680849393576906</v>
       </c>
       <c r="Z22" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>12.459085879704048</v>
+        <v>13.273860722120332</v>
       </c>
       <c r="AA22" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>7.7104149561107107</v>
+        <v>7.0775633543672996</v>
       </c>
       <c r="AB22" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>16.969525381801589</v>
+        <v>19.877648115665643</v>
       </c>
       <c r="AC22" s="8" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AD22" s="8" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AE22" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.84246642798821</v>
+        <v>10.398698219174872</v>
       </c>
       <c r="AF22" s="8">
         <v>216</v>
@@ -4153,16 +4000,16 @@
       </c>
       <c r="AH22" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.3578205598108664</v>
+        <v>4.444604431701813</v>
       </c>
       <c r="AI22" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ22" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK22" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="AJ22" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK22" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="AL22" s="5">
         <v>72594</v>
@@ -4197,65 +4044,65 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C24" s="8">
         <v>44329</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F24" s="4">
         <v>36096</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J24">
         <v>3</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.292536971709879</v>
+        <v>79.900672419673739</v>
       </c>
       <c r="L24" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.259525836331306</v>
+        <v>76.126150885257488</v>
       </c>
       <c r="M24" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.537433733546592</v>
+        <v>82.632989468543784</v>
       </c>
       <c r="N24" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>51.446135087647683</v>
+        <v>42.673198088405748</v>
       </c>
       <c r="O24" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>77.276501499485079</v>
+        <v>72.015050100137927</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.435731562809096</v>
+        <v>85.921350023043715</v>
       </c>
       <c r="Q24">
         <v>7.3</v>
       </c>
       <c r="R24" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="S24" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="T24">
         <v>4</v>
@@ -4274,31 +4121,31 @@
       </c>
       <c r="Y24" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>35.292536971709879</v>
+        <v>35.900672419673739</v>
       </c>
       <c r="Z24" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>39.259525836331306</v>
+        <v>36.126150885257488</v>
       </c>
       <c r="AA24" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>32.537433733546592</v>
+        <v>34.632989468543784</v>
       </c>
       <c r="AB24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>33.446135087647683</v>
+        <v>24.673198088405748</v>
       </c>
       <c r="AC24" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>51.794563346733348</v>
+        <v>47.584034265067032</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>32.451746453239558</v>
+        <v>32.912409020325619</v>
       </c>
       <c r="AE24" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.7667862217496157</v>
+        <v>7.5300590935220546</v>
       </c>
       <c r="AF24" s="8">
         <v>102</v>
@@ -4308,16 +4155,16 @@
       </c>
       <c r="AH24" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.1703995266694331</v>
+        <v>4.28342104953283</v>
       </c>
       <c r="AI24" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AJ24" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AK24" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL24" s="5">
         <v>29884</v>
@@ -4325,65 +4172,65 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C25" s="8">
         <v>44332</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F25" s="4">
         <v>36900</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J25">
         <v>3</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.389746713194853</v>
+        <v>75.673485555404866</v>
       </c>
       <c r="L25" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.405894646653977</v>
+        <v>79.374306353338525</v>
       </c>
       <c r="M25" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.02421023871851</v>
+        <v>81.209025088641766</v>
       </c>
       <c r="N25" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>47.1047347812341</v>
+        <v>48.02283844022103</v>
       </c>
       <c r="O25" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>69.627805150338048</v>
+        <v>68.678347115468071</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.123277291232355</v>
+        <v>87.320817328880423</v>
       </c>
       <c r="Q25">
         <v>8.6</v>
       </c>
       <c r="R25" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="S25" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="T25">
         <v>4.0999999999999996</v>
@@ -4402,31 +4249,31 @@
       </c>
       <c r="Y25" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.3897467131948531</v>
+        <v>9.6734855554048664</v>
       </c>
       <c r="Z25" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>19.405894646653977</v>
+        <v>19.374306353338525</v>
       </c>
       <c r="AA25" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>8.0242102387185099</v>
+        <v>9.2090250886417664</v>
       </c>
       <c r="AB25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>20.1047347812341</v>
+        <v>21.02283844022103</v>
       </c>
       <c r="AC25" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>28.024233546743879</v>
+        <v>27.286698062738232</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6.8825236716730025</v>
+        <v>9.1204483048995417</v>
       </c>
       <c r="AE25" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.1537768424834454</v>
+        <v>9.3759657752270833</v>
       </c>
       <c r="AF25" s="8">
         <v>224</v>
@@ -4438,13 +4285,13 @@
         <v>-99</v>
       </c>
       <c r="AI25" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ25" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK25" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="AJ25" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="AK25" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="AL25" s="5">
         <v>72529</v>
@@ -4452,65 +4299,65 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C26" s="8">
         <v>44346</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F26" s="4">
         <v>34400</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J26">
         <v>3</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.344767249184372</v>
+        <v>79.356375801613638</v>
       </c>
       <c r="L26" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.953611372234178</v>
+        <v>77.032611759546683</v>
       </c>
       <c r="M26" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.156444796200688</v>
+        <v>82.967172213630604</v>
       </c>
       <c r="N26" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>44.439840158556109</v>
+        <v>51.20554841733653</v>
       </c>
       <c r="O26" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>71.280685401198411</v>
+        <v>68.63361294369939</v>
       </c>
       <c r="P26" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.169170355012994</v>
+        <v>87.118420926599057</v>
       </c>
       <c r="Q26">
         <v>5.7</v>
       </c>
       <c r="R26" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="S26" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="T26">
         <v>3.8</v>
@@ -4529,27 +4376,27 @@
       </c>
       <c r="Y26" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>54.344767249184372</v>
+        <v>57.356375801613638</v>
       </c>
       <c r="Z26" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>55.953611372234178</v>
+        <v>57.032611759546683</v>
       </c>
       <c r="AA26" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>57.156444796200688</v>
+        <v>58.967172213630604</v>
       </c>
       <c r="AB26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>35.439840158556109</v>
+        <v>42.20554841733653</v>
       </c>
       <c r="AC26" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>58.368126398937022</v>
+        <v>55.024547719983559</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>60.47081962082467</v>
+        <v>60.205569904781569</v>
       </c>
       <c r="AE26" s="7">
         <v>3.2</v>
@@ -4562,16 +4409,16 @@
       </c>
       <c r="AH26" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.0916058743519628</v>
+        <v>3.9278667893885384</v>
       </c>
       <c r="AI26" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AK26" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="AJ26" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="AK26" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="AL26" s="5">
         <v>76681</v>
@@ -4579,65 +4426,65 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C27" s="8">
         <v>44358</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F27" s="4">
         <v>31555</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>28.905304781525508</v>
+        <v>29.706194512207567</v>
       </c>
       <c r="L27" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>28.246681258376125</v>
+        <v>30.189808466192154</v>
       </c>
       <c r="M27" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>28.678167828420666</v>
+        <v>27.976128210239068</v>
       </c>
       <c r="N27" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>18.446437879456496</v>
+        <v>15.646627777227808</v>
       </c>
       <c r="O27" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>22.208957085732546</v>
+        <v>22.230256410745557</v>
       </c>
       <c r="P27" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>29.526329660257687</v>
+        <v>28.104494777518887</v>
       </c>
       <c r="Q27">
         <v>9.4</v>
       </c>
       <c r="R27" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="S27" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="T27">
         <v>3.9</v>
@@ -4656,31 +4503,31 @@
       </c>
       <c r="Y27" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.9053047815255084</v>
+        <v>7.706194512207567</v>
       </c>
       <c r="Z27" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>8.2466812583761246</v>
+        <v>10.189808466192154</v>
       </c>
       <c r="AA27" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>4.6781678284206656</v>
+        <v>3.976128210239068</v>
       </c>
       <c r="AB27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.4464378794564965</v>
+        <v>6.646627777227808</v>
       </c>
       <c r="AC27" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>13.120426912160625</v>
+        <v>12.152088438788502</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>5.1098382236996152</v>
+        <v>2.2756636102321774</v>
       </c>
       <c r="AE27" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.5591161312889543</v>
+        <v>9.6529276570299878</v>
       </c>
       <c r="AF27" s="8">
         <v>325</v>
@@ -4690,16 +4537,16 @@
       </c>
       <c r="AH27" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>3.9672210195097719</v>
+        <v>3.9505033687003532</v>
       </c>
       <c r="AI27" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AJ27" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AK27" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AL27" s="5">
         <v>98151</v>
@@ -4707,65 +4554,65 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C28" s="8">
         <v>44370</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F28" s="4">
         <v>21753</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J28">
         <v>3</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.109826172725604</v>
+        <v>75.46738294140053</v>
       </c>
       <c r="L28" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.364060565844426</v>
+        <v>78.29164748631834</v>
       </c>
       <c r="M28" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.234619277961798</v>
+        <v>79.270647924108303</v>
       </c>
       <c r="N28" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>51.927117708360818</v>
+        <v>44.628120819116432</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>72.43244221114773</v>
+        <v>75.888019000360401</v>
       </c>
       <c r="P28" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.554583805526732</v>
+        <v>87.751563961278876</v>
       </c>
       <c r="Q28">
         <v>8.8000000000000007</v>
       </c>
       <c r="R28" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="S28" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="T28">
         <v>37</v>
@@ -4784,31 +4631,31 @@
       </c>
       <c r="Y28" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>35.109826172725604</v>
+        <v>31.46738294140053</v>
       </c>
       <c r="Z28" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>35.364060565844426</v>
+        <v>38.29164748631834</v>
       </c>
       <c r="AA28" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>33.234619277961798</v>
+        <v>31.270647924108303</v>
       </c>
       <c r="AB28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>33.927117708360818</v>
+        <v>26.628120819116432</v>
       </c>
       <c r="AC28" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>45.417571554273906</v>
+        <v>52.191287506072769</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.12041904275663</v>
+        <v>36.292975686999071</v>
       </c>
       <c r="AE28" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.3017451813337573</v>
+        <v>10.104681084631935</v>
       </c>
       <c r="AF28" s="8">
         <v>356</v>
@@ -4818,16 +4665,16 @@
       </c>
       <c r="AH28" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>37.048791722598118</v>
+        <v>37.233449784510597</v>
       </c>
       <c r="AI28" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AK28" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="AJ28" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="AK28" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="AL28" s="5">
         <v>33709</v>
@@ -4835,65 +4682,65 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C29" s="8">
         <v>44383</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F29" s="4">
         <v>33509</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>52.747409690013427</v>
+        <v>50.489686921440139</v>
       </c>
       <c r="L29" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>52.483969237737597</v>
+        <v>55.80189174594603</v>
       </c>
       <c r="M29" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>56.443318321673189</v>
+        <v>54.590986910362638</v>
       </c>
       <c r="N29" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>31.177867340670161</v>
+        <v>32.936582235529443</v>
       </c>
       <c r="O29" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>52.375598731137984</v>
+        <v>51.90497713088363</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>56.347241777822504</v>
+        <v>56.446763558685966</v>
       </c>
       <c r="Q29">
         <v>5.5</v>
       </c>
       <c r="R29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S29" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="T29">
         <v>4</v>
@@ -4912,27 +4759,27 @@
       </c>
       <c r="Y29" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>30.747409690013427</v>
+        <v>28.489686921440139</v>
       </c>
       <c r="Z29" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>32.483969237737597</v>
+        <v>35.80189174594603</v>
       </c>
       <c r="AA29" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>32.443318321673189</v>
+        <v>30.590986910362638</v>
       </c>
       <c r="AB29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>22.177867340670161</v>
+        <v>23.936582235529443</v>
       </c>
       <c r="AC29" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>41.388894056374887</v>
+        <v>39.376207006423648</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>31.446635487685171</v>
+        <v>29.828561805002956</v>
       </c>
       <c r="AE29" s="7">
         <v>3.3</v>
@@ -4945,16 +4792,16 @@
       </c>
       <c r="AH29" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.2620247049393765</v>
+        <v>4.2285737874800979</v>
       </c>
       <c r="AI29" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AJ29" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AK29" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AL29" s="5">
         <v>47006</v>
@@ -4962,65 +4809,65 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C30" s="8">
         <v>44391</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F30" s="4">
         <v>37564</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J30">
         <v>3</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.225326331734124</v>
+        <v>75.14965154476296</v>
       </c>
       <c r="L30" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.888044562853892</v>
+        <v>77.27741727223561</v>
       </c>
       <c r="M30" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.532060191038553</v>
+        <v>80.081703888217234</v>
       </c>
       <c r="N30" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>47.42309515137233</v>
+        <v>51.169413205025919</v>
       </c>
       <c r="O30" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>66.474306510031496</v>
+        <v>78.296426684074646</v>
       </c>
       <c r="P30" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.457038231003011</v>
+        <v>86.496005779440765</v>
       </c>
       <c r="Q30">
         <v>7.6</v>
       </c>
       <c r="R30" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="S30" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="T30">
         <v>3.6</v>
@@ -5039,31 +4886,31 @@
       </c>
       <c r="Y30" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.2253263317341236</v>
+        <v>9.1496515447629605</v>
       </c>
       <c r="Z30" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>19.888044562853892</v>
+        <v>17.27741727223561</v>
       </c>
       <c r="AA30" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>6.5320601910385534</v>
+        <v>8.0817038882172341</v>
       </c>
       <c r="AB30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>20.42309515137233</v>
+        <v>24.169413205025919</v>
       </c>
       <c r="AC30" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>27.007297504717883</v>
+        <v>39.244849234811525</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>5.0028042477570018</v>
+        <v>7.4630874163245178</v>
       </c>
       <c r="AE30" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.6078009940164897</v>
+        <v>8.369755521859469</v>
       </c>
       <c r="AF30" s="8">
         <v>254</v>
@@ -5073,16 +4920,16 @@
       </c>
       <c r="AH30" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>3.7304466486782819</v>
+        <v>3.8444131721209347</v>
       </c>
       <c r="AI30" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AJ30" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AK30" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AL30" s="5">
         <v>55577</v>
@@ -5090,65 +4937,65 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C31" s="8">
         <v>44397</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F31" s="4">
         <v>31817</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J31">
         <v>3</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.397483563167413</v>
+        <v>79.728025761185478</v>
       </c>
       <c r="L31" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.760112054516128</v>
+        <v>76.843411877198406</v>
       </c>
       <c r="M31" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.294415013431305</v>
+        <v>78.615937847814166</v>
       </c>
       <c r="N31" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>47.503008886483904</v>
+        <v>46.950692546388844</v>
       </c>
       <c r="O31" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>77.041564259060564</v>
+        <v>67.944391281756339</v>
       </c>
       <c r="P31" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.211594732214252</v>
+        <v>87.658452672301223</v>
       </c>
       <c r="Q31">
         <v>6.3</v>
       </c>
       <c r="R31" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="S31" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="T31">
         <v>3.5</v>
@@ -5167,27 +5014,27 @@
       </c>
       <c r="Y31" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>56.397483563167413</v>
+        <v>57.728025761185478</v>
       </c>
       <c r="Z31" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>60.760112054516128</v>
+        <v>56.843411877198406</v>
       </c>
       <c r="AA31" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>58.294415013431305</v>
+        <v>54.615937847814166</v>
       </c>
       <c r="AB31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>38.503008886483904</v>
+        <v>37.950692546388844</v>
       </c>
       <c r="AC31" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>64.595741275696824</v>
+        <v>55.544822294062108</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>60.768231284959285</v>
+        <v>62.482939461210904</v>
       </c>
       <c r="AE31" s="7">
         <v>3.7</v>
@@ -5200,16 +5047,16 @@
       </c>
       <c r="AH31" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>3.6179915928169364</v>
+        <v>3.7546822395845796</v>
       </c>
       <c r="AI31" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK31" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="AJ31" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="AK31" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="AL31" s="5">
         <v>41981</v>
@@ -5217,65 +5064,65 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C32" s="8">
         <v>44412</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F32" s="4">
         <v>32620</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J32">
         <v>3</v>
       </c>
       <c r="K32" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.718826779205529</v>
+        <v>78.015341791575679</v>
       </c>
       <c r="L32" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.027236612715015</v>
+        <v>78.250438331585144</v>
       </c>
       <c r="M32" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.035445932626729</v>
+        <v>79.674098903605511</v>
       </c>
       <c r="N32" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>44.813627753406664</v>
+        <v>43.543118886242191</v>
       </c>
       <c r="O32" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>75.230353253703072</v>
+        <v>75.429082367922405</v>
       </c>
       <c r="P32" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.67442364983971</v>
+        <v>85.04691019673183</v>
       </c>
       <c r="Q32">
         <v>8.9</v>
       </c>
       <c r="R32" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="S32" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="T32">
         <v>4.5999999999999996</v>
@@ -5294,31 +5141,31 @@
       </c>
       <c r="Y32" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.718826779205529</v>
+        <v>34.015341791575679</v>
       </c>
       <c r="Z32" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>39.027236612715015</v>
+        <v>38.250438331585144</v>
       </c>
       <c r="AA32" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>32.035445932626729</v>
+        <v>31.674098903605511</v>
       </c>
       <c r="AB32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>26.813627753406664</v>
+        <v>25.543118886242191</v>
       </c>
       <c r="AC32" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>50.243011921919624</v>
+        <v>52.773125853378446</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>32.950630192532145</v>
+        <v>32.696426810461418</v>
       </c>
       <c r="AE32" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.9106752137839464</v>
+        <v>9.6966882018713783</v>
       </c>
       <c r="AF32" s="8">
         <v>48</v>
@@ -5328,16 +5175,16 @@
       </c>
       <c r="AH32" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.7779437765526183</v>
+        <v>4.7399969919257892</v>
       </c>
       <c r="AI32" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK32" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="AJ32" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="AK32" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="AL32" s="5">
         <v>85050</v>
@@ -5345,65 +5192,65 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C33" s="8">
         <v>44425</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F33" s="4">
         <v>28657</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J33">
         <v>3</v>
       </c>
       <c r="K33" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.914497529353127</v>
+        <v>75.09903928736631</v>
       </c>
       <c r="L33" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.903805226393942</v>
+        <v>78.210223523476117</v>
       </c>
       <c r="M33" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.697084312427847</v>
+        <v>82.624330770920253</v>
       </c>
       <c r="N33" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>47.873426469327548</v>
+        <v>46.465176600054662</v>
       </c>
       <c r="O33" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>76.018135396616472</v>
+        <v>76.060518300392985</v>
       </c>
       <c r="P33" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.736142789102004</v>
+        <v>86.685386542301444</v>
       </c>
       <c r="Q33">
         <v>5.9</v>
       </c>
       <c r="R33" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="S33" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="T33">
         <v>5.0999999999999996</v>
@@ -5422,31 +5269,31 @@
       </c>
       <c r="Y33" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.914497529353127</v>
+        <v>31.09903928736631</v>
       </c>
       <c r="Z33" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>36.903805226393942</v>
+        <v>38.210223523476117</v>
       </c>
       <c r="AA33" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>34.697084312427847</v>
+        <v>34.624330770920253</v>
       </c>
       <c r="AB33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>29.873426469327548</v>
+        <v>28.465176600054662</v>
       </c>
       <c r="AC33" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>52.659962900705473</v>
+        <v>51.349024124016246</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>35.22207511433983</v>
+        <v>33.811117145431744</v>
       </c>
       <c r="AE33" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>6.3113361910829493</v>
+        <v>5.9378323223538079</v>
       </c>
       <c r="AF33" s="8">
         <v>1482</v>
@@ -5456,16 +5303,16 @@
       </c>
       <c r="AH33" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>5.2551591011317011</v>
+        <v>5.3877873813045802</v>
       </c>
       <c r="AI33" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AJ33" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AK33" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AL33" s="5">
         <v>41049</v>
@@ -5473,68 +5320,68 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C34" s="8">
         <v>44434</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="F34" s="4">
         <v>31273</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J34">
         <v>3</v>
       </c>
       <c r="K34" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.652072258560679</v>
+        <v>75.685612404850318</v>
       </c>
       <c r="L34" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.292962068905467</v>
+        <v>78.180231484358231</v>
       </c>
       <c r="M34" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.184795768636178</v>
+        <v>78.144455580955992</v>
       </c>
       <c r="N34" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>45.535419855420486</v>
+        <v>49.56521814601858</v>
       </c>
       <c r="O34" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>79.664233692242561</v>
+        <v>67.323732852520578</v>
       </c>
       <c r="P34" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.77073966896792</v>
+        <v>86.24190617208734</v>
       </c>
       <c r="Q34">
         <v>6.8</v>
       </c>
       <c r="R34" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="S34" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="T34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -5550,31 +5397,31 @@
       </c>
       <c r="Y34" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>10.652072258560679</v>
+        <v>9.6856124048503176</v>
       </c>
       <c r="Z34" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>15.292962068905467</v>
+        <v>18.180231484358231</v>
       </c>
       <c r="AA34" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>10.184795768636178</v>
+        <v>6.1444555809559915</v>
       </c>
       <c r="AB34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>18.535419855420486</v>
+        <v>22.56521814601858</v>
       </c>
       <c r="AC34" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>41.581059324621933</v>
+        <v>27.593338497033869</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>7.6412894356576047</v>
+        <v>7.0747548512275324</v>
       </c>
       <c r="AE34" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>7.2253428968846141</v>
+        <v>7.8940729701064827</v>
       </c>
       <c r="AF34" s="8">
         <v>23</v>
@@ -5586,13 +5433,13 @@
         <v>3.9</v>
       </c>
       <c r="AI34" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ34" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK34" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="AJ34" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="AK34" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="AL34" s="5">
         <v>82799</v>
@@ -5600,65 +5447,65 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C35" s="8">
         <v>44444</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F35" s="4">
         <v>35361</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J35">
         <v>2</v>
       </c>
       <c r="K35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>51.116042784768723</v>
+        <v>51.856509105506859</v>
       </c>
       <c r="L35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>50.941681253003466</v>
+        <v>55.682538022439886</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>53.50713968982123</v>
+        <v>54.854091719062147</v>
       </c>
       <c r="N35" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>30.45694908143215</v>
+        <v>33.836093691427351</v>
       </c>
       <c r="O35" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>44.221238491480619</v>
+        <v>45.724994306521246</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>56.886944996636274</v>
+        <v>57.414800264500954</v>
       </c>
       <c r="Q35">
         <v>7.8</v>
       </c>
       <c r="R35" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="S35" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="T35">
         <v>3.6</v>
@@ -5677,27 +5524,27 @@
       </c>
       <c r="Y35" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>29.116042784768723</v>
+        <v>29.856509105506859</v>
       </c>
       <c r="Z35" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>30.941681253003466</v>
+        <v>35.682538022439886</v>
       </c>
       <c r="AA35" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>29.50713968982123</v>
+        <v>30.854091719062147</v>
       </c>
       <c r="AB35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>21.45694908143215</v>
+        <v>24.836093691427351</v>
       </c>
       <c r="AC35" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>33.176949642484104</v>
+        <v>35.172114791283185</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>31.576567281259898</v>
+        <v>32.872832792285671</v>
       </c>
       <c r="AE35" s="7">
         <v>4.5</v>
@@ -5710,16 +5557,16 @@
       </c>
       <c r="AH35" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>3.6886282014087697</v>
+        <v>3.7993716657095242</v>
       </c>
       <c r="AI35" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AJ35" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AK35" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AL35" s="5">
         <v>72572</v>
@@ -5727,65 +5574,65 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C36" s="8">
         <v>44461</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F36" s="4">
         <v>28121</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J36">
         <v>3</v>
       </c>
       <c r="K36" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.115459660761573</v>
+        <v>77.884885489410337</v>
       </c>
       <c r="L36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.92283757619748</v>
+        <v>76.7285723632464</v>
       </c>
       <c r="M36" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.266082552638437</v>
+        <v>82.64261573978338</v>
       </c>
       <c r="N36" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>42.070642807870158</v>
+        <v>50.442158589386558</v>
       </c>
       <c r="O36" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>78.460246527488081</v>
+        <v>72.774358263539057</v>
       </c>
       <c r="P36" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.525299291192255</v>
+        <v>85.760031300725345</v>
       </c>
       <c r="Q36">
         <v>6.9</v>
       </c>
       <c r="R36" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="S36" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="T36">
         <v>4.2</v>
@@ -5804,27 +5651,27 @@
       </c>
       <c r="Y36" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>56.115459660761573</v>
+        <v>55.884885489410337</v>
       </c>
       <c r="Z36" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>57.92283757619748</v>
+        <v>56.7285723632464</v>
       </c>
       <c r="AA36" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>57.266082552638437</v>
+        <v>58.64261573978338</v>
       </c>
       <c r="AB36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>33.070642807870158</v>
+        <v>41.442158589386558</v>
       </c>
       <c r="AC36" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>67.258563644329342</v>
+        <v>61.050609896060223</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>59.277702260314456</v>
+        <v>61.618131295493889</v>
       </c>
       <c r="AE36" s="7">
         <v>4.0999999999999996</v>
@@ -5837,16 +5684,16 @@
       </c>
       <c r="AH36" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.4182659580575523</v>
+        <v>4.448095766800356</v>
       </c>
       <c r="AI36" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ36" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK36" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="AJ36" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="AK36" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="AL36" s="5">
         <v>49770</v>
@@ -5854,65 +5701,65 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="C37" s="8">
         <v>44475</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F37" s="4">
         <v>32157</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J37">
         <v>2</v>
       </c>
       <c r="K37" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>52.414454911186809</v>
+        <v>50.81139637661434</v>
       </c>
       <c r="L37" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>52.929545855487909</v>
+        <v>51.62526878782284</v>
       </c>
       <c r="M37" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>52.595236416810501</v>
+        <v>56.705680094988693</v>
       </c>
       <c r="N37" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>29.029661031050903</v>
+        <v>36.293140423987474</v>
       </c>
       <c r="O37" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>49.384266375424644</v>
+        <v>49.812025883073069</v>
       </c>
       <c r="P37" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>57.376572056284601</v>
+        <v>58.317939666520033</v>
       </c>
       <c r="Q37">
         <v>8.4</v>
       </c>
       <c r="R37" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="S37" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="T37">
         <v>3.9</v>
@@ -5931,31 +5778,31 @@
       </c>
       <c r="Y37" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>8.4144549111868088</v>
+        <v>6.8113963766143399</v>
       </c>
       <c r="Z37" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>12.929545855487909</v>
+        <v>11.62526878782284</v>
       </c>
       <c r="AA37" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>4.5952364168105007</v>
+        <v>8.7056800949886934</v>
       </c>
       <c r="AB37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>11.029661031050903</v>
+        <v>18.293140423987474</v>
       </c>
       <c r="AC37" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>22.931081374117134</v>
+        <v>27.808305994545258</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>4.2375049721557598</v>
+        <v>6.0092116610923476</v>
       </c>
       <c r="AE37" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.982858620309111</v>
+        <v>9.4377277929556183</v>
       </c>
       <c r="AF37" s="8">
         <v>284</v>
@@ -5965,16 +5812,16 @@
       </c>
       <c r="AH37" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.0719697180300365</v>
+        <v>4.0007728575145887</v>
       </c>
       <c r="AI37" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ37" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AK37" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AL37" s="5">
         <v>34404</v>
@@ -5982,65 +5829,65 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="C38" s="8">
         <v>44500</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F38" s="4">
         <v>33361</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J38">
         <v>3</v>
       </c>
       <c r="K38" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.87491695715832</v>
+        <v>79.037710478905083</v>
       </c>
       <c r="L38" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.527886736799815</v>
+        <v>75.63206786419147</v>
       </c>
       <c r="M38" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.357850914509655</v>
+        <v>79.984191805157366</v>
       </c>
       <c r="N38" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>48.912582037822851</v>
+        <v>48.871255295201273</v>
       </c>
       <c r="O38" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>69.242894415865237</v>
+        <v>67.888196140263716</v>
       </c>
       <c r="P38" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.353176962117942</v>
+        <v>85.32962495610326</v>
       </c>
       <c r="Q38">
         <v>6.9</v>
       </c>
       <c r="R38" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="S38" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="T38">
         <v>3.8</v>
@@ -6059,31 +5906,31 @@
       </c>
       <c r="Y38" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>13.87491695715832</v>
+        <v>13.037710478905083</v>
       </c>
       <c r="Z38" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>17.527886736799815</v>
+        <v>15.63206786419147</v>
       </c>
       <c r="AA38" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>8.3578509145096547</v>
+        <v>7.9841918051573657</v>
       </c>
       <c r="AB38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>21.912582037822851</v>
+        <v>21.871255295201273</v>
       </c>
       <c r="AC38" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>31.118353038978491</v>
+        <v>25.92523634758334</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>3.8669573019983075</v>
+        <v>4.4851212435997887</v>
       </c>
       <c r="AE38" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>7.2440830839206454</v>
+        <v>8.1752725792701284</v>
       </c>
       <c r="AF38" s="8">
         <v>229</v>
@@ -6093,16 +5940,16 @@
       </c>
       <c r="AH38" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.0636383597867978</v>
+        <v>3.9532564555609002</v>
       </c>
       <c r="AI38" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ38" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AK38" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AL38" s="5">
         <v>10316</v>
@@ -6113,140 +5960,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6A7274-5BC3-874F-A9E9-C89FF8C99B8A}">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="43.5" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>303</v>
-      </c>
-      <c r="B10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>308</v>
-      </c>
-      <c r="B13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>310</v>
-      </c>
-      <c r="B14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>320</v>
-      </c>
-      <c r="B15" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>322</v>
-      </c>
-      <c r="B16" t="s">
-        <v>323</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>